--- a/finalData/Artfinal.xlsx
+++ b/finalData/Artfinal.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,402 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-06-25 12:50:12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Designer Art glass \nfor more inquiry +91 9374276246\nhtpps://www.rangkalaglass.com\n#glassart #glassdesign #artwork https://t.co/dFb7beIObl</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Designer Art glass', 'nfor', 'inquiry', 'glassdesign', 'artwork']</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-06-25 08:52:15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RT @veveglass: #wallart .... beautiful bedroom decor and good sleep improve your life...\n#glassdesign https://t.co/WFjK2hfq62</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9312286376953125</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['good sleep', 'life', 'beautiful bedroom decor', 'veveglass', 'wallart', 'glassdesign']</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-06-25 08:46:50</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>#wallart .... beautiful bedroom decor and good sleep improve your life...\n#glassdesign #interiordesign #modernart https://t.co/SdYZCVzAZn</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9209585189819336</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['good sleep', 'life', 'beautiful bedroom decor', 'glassdesign', 'interiordesign', 'modernart', 'wallart']</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-06-25 07:42:09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Smart buildings of glass are trending in smart cities https://t.co/Mo0rQUpZop #glassdesign #architecture #smartcity https://t.co/oWLSsPw8zQ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9317877888679504</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['smart cities', 'Smart buildings of glass', 'glassdesign', 'architecture', 'smartcity']</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019-06-24 18:06:01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Join us for a #LunchandLearn presentation given by Guardian Glass at 12:00pm on Thursday, June 27th at Footnote Cof https://t.co/WFltyzknFv</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['Guardian Glass', 'LunchandLearn presentation', 'Footnote Cof']</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-06-24 13:30:31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Per Twitter \n\nThe cage project starts from the experience of Odo Fioravanti in the design of industrial products an https://t.co/L4IIi1CqSD</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['experience of Odo Fioravanti', 'design of industrial products', 'cage project', 'Twitter']</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019-06-24 11:07:34</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>It is a beautiful day #glassdesign #lovemakingglass #create #discover #learn @ Istanbul, Turkey https://t.co/kpKRG4hF2h</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9897170066833496</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['beautiful day', 'glassdesign', 'lovemakingglass', 'Istanbul', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:55:07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Meet the men behind Glasslines, Mike Bloomberg and Alan O'Donovan. These are the guys who make sure that Liverpool' https://t.co/nzsWed6aD2</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['Glasslines', 'Mike Bloomberg', "Alan O'Donovan", 'men', 'guys', 'Liverpool']</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019-06-24 11:05:17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Buy now and get 25% off across our Spirits Measures range. Includes Jiggers. Until 30th June 2019.\n\nThe perfect tim https://t.co/mPqNnJBpwh</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7765089273452759</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Spirits Measures range', 'perfect tim', 'Jiggers']</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/finalData/Artfinal.xlsx
+++ b/finalData/Artfinal.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_283A65DF5C7135091A6A0933BCE97AB135C55E4B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_283A65DF5C7135091A6A0933BCE97AB135C55E4B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D808896D-F925-4F7A-A672-AEE150EC4CD2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
   <si>
     <t>Time</t>
   </si>
@@ -212,6 +212,9 @@
     <t>Where would #spirits be without glass? Find out the answer in the latest @ArtisanSpiritM issue. #glassdesign https://t.co/R1zjz0tEZL</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
     <t>['answer', 'ArtisanSpiritM issue', 'spirits', 'glassdesign']</t>
   </si>
   <si>
@@ -375,9 +378,6 @@
   </si>
   <si>
     <t>Aesthetic</t>
-  </si>
-  <si>
-    <t>Product</t>
   </si>
   <si>
     <t>Sustainability</t>
@@ -763,11 +763,12 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="131.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1036,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1068,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1100,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1132,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1164,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1196,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1228,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1260,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1292,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1309,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.1643333435058594E-2</v>
+        <v>0.91643333435058605</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1317,8 +1318,11 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1329,10 +1333,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1350,21 +1354,21 @@
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1382,21 +1386,21 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1414,21 +1418,21 @@
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1446,21 +1450,21 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1478,21 +1482,21 @@
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1510,21 +1514,21 @@
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1542,21 +1546,21 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1574,13 +1578,13 @@
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1612,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1644,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1681,10 +1685,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1696,27 +1700,27 @@
         <v>0.82030928134918213</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1733,8 +1737,11 @@
       <c r="G30" t="s">
         <v>15</v>
       </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1745,10 +1752,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1766,21 +1773,21 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1798,21 +1805,21 @@
         <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1829,8 +1836,11 @@
       <c r="G33" t="s">
         <v>15</v>
       </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1841,10 +1851,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1861,8 +1871,11 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1873,10 +1886,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1893,8 +1906,11 @@
       <c r="G35" t="s">
         <v>15</v>
       </c>
+      <c r="H35" t="s">
+        <v>62</v>
+      </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1905,10 +1921,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1925,14 +1941,17 @@
       <c r="G36" t="s">
         <v>15</v>
       </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
       <c r="J36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1940,7 +1959,7 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1957,8 +1976,11 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1969,6 +1991,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDAD371D-AF4F-4CC8-B27C-C8A537762121}">
+          <x14:formula1>
+            <xm:f>'Sheet 2'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1977,14 +2011,14 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1992,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2000,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2008,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2057,6 +2091,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="168b8d325a13eff6fb375030edbea8e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="818ea96dd1355113715be5cc0484ce34" ns2:_="" ns3:_="">
     <xsd:import namespace="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
@@ -2221,12 +2261,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2237,11 +2271,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A84EF82-6A5D-4EF8-92A7-C631C6DC51F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C6C7-2764-449A-B7F4-B374C80F02C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C6C7-2764-449A-B7F4-B374C80F02C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A84EF82-6A5D-4EF8-92A7-C631C6DC51F0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
